--- a/JupyterNotebooks/AveragedIntensites/GossF-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW35.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossF-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,7 +961,7 @@
         <v>0.9948001574743723</v>
       </c>
       <c r="G13">
-        <v>0.9951615938329433</v>
+        <v>0.9951615938329431</v>
       </c>
       <c r="H13">
         <v>0.9952355635981295</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9954402156542023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.003347938170875</v>
+      </c>
+      <c r="D16">
+        <v>0.9733256173515474</v>
+      </c>
+      <c r="E16">
+        <v>1.001125728766453</v>
+      </c>
+      <c r="F16">
+        <v>1.003347938170875</v>
+      </c>
+      <c r="G16">
+        <v>0.9836962612942947</v>
+      </c>
+      <c r="H16">
+        <v>1.012687467361678</v>
+      </c>
+      <c r="I16">
+        <v>0.9998331504704114</v>
+      </c>
+      <c r="J16">
+        <v>0.9733256173515474</v>
+      </c>
+      <c r="K16">
+        <v>0.9872256730590003</v>
+      </c>
+      <c r="L16">
+        <v>0.9952868056149375</v>
+      </c>
+      <c r="M16">
+        <v>0.9956693605692098</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.003347938170875</v>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW35.xlsx
@@ -964,7 +964,7 @@
         <v>0.9948001574743723</v>
       </c>
       <c r="G13">
-        <v>0.9951615938329431</v>
+        <v>0.9951615938329433</v>
       </c>
       <c r="H13">
         <v>0.9952355635981295</v>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9985720000000012</v>
+        <v>1.003347938170875</v>
       </c>
       <c r="D10">
-        <v>1.038036000000002</v>
+        <v>0.9733256173515474</v>
       </c>
       <c r="E10">
-        <v>0.9775199999999988</v>
+        <v>1.001125728766453</v>
       </c>
       <c r="F10">
-        <v>0.9985720000000012</v>
+        <v>1.003347938170875</v>
       </c>
       <c r="G10">
-        <v>1.022660000000002</v>
+        <v>0.9836962612942947</v>
       </c>
       <c r="H10">
-        <v>0.9590199999999987</v>
+        <v>1.012687467361678</v>
       </c>
       <c r="I10">
-        <v>0.9827319999999988</v>
+        <v>0.9998331504704114</v>
       </c>
       <c r="J10">
-        <v>1.038036000000002</v>
+        <v>0.9733256173515474</v>
       </c>
       <c r="K10">
-        <v>1.007778000000001</v>
+        <v>0.9872256730590003</v>
       </c>
       <c r="L10">
-        <v>1.003175000000001</v>
+        <v>0.9952868056149375</v>
       </c>
       <c r="M10">
-        <v>0.9964233333333335</v>
+        <v>0.9956693605692098</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.05</v>
+        <v>0.9562621741901214</v>
       </c>
       <c r="D11">
-        <v>0.88</v>
+        <v>1.157191612340948</v>
       </c>
       <c r="E11">
-        <v>1.01</v>
+        <v>0.955779366648643</v>
       </c>
       <c r="F11">
-        <v>1.05</v>
+        <v>0.9562621741901214</v>
       </c>
       <c r="G11">
-        <v>0.9399999999999999</v>
+        <v>1.083952906428973</v>
       </c>
       <c r="H11">
-        <v>1.06</v>
+        <v>0.8837512452138621</v>
       </c>
       <c r="I11">
-        <v>1.02</v>
+        <v>0.9555695867431695</v>
       </c>
       <c r="J11">
-        <v>0.88</v>
+        <v>1.157191612340948</v>
       </c>
       <c r="K11">
-        <v>0.9450000000000001</v>
+        <v>1.056485489494796</v>
       </c>
       <c r="L11">
-        <v>0.9975000000000001</v>
+        <v>1.006373831842459</v>
       </c>
       <c r="M11">
-        <v>0.9933333333333335</v>
+        <v>0.9987511485942863</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.0262974742528</v>
+        <v>0.9559971214431333</v>
       </c>
       <c r="D12">
-        <v>0.928224422399998</v>
+        <v>1.157909614783843</v>
       </c>
       <c r="E12">
-        <v>1.004316422758409</v>
+        <v>0.9556190990046128</v>
       </c>
       <c r="F12">
-        <v>1.0262974742528</v>
+        <v>0.9559971214431333</v>
       </c>
       <c r="G12">
-        <v>0.9631890388992002</v>
+        <v>1.084317326809649</v>
       </c>
       <c r="H12">
-        <v>1.032199403212798</v>
+        <v>0.8832881026964334</v>
       </c>
       <c r="I12">
-        <v>1.009604061388806</v>
+        <v>0.9554068998788759</v>
       </c>
       <c r="J12">
-        <v>0.928224422399998</v>
+        <v>1.157909614783843</v>
       </c>
       <c r="K12">
-        <v>0.9662704225792034</v>
+        <v>1.056764356894228</v>
       </c>
       <c r="L12">
-        <v>0.9962839484160018</v>
+        <v>1.006380739168681</v>
       </c>
       <c r="M12">
-        <v>0.9939718038186687</v>
+        <v>0.9987563607694244</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9948001574743723</v>
+        <v>0.9561919229152361</v>
       </c>
       <c r="D13">
-        <v>0.9953179138043176</v>
+        <v>1.157322231964719</v>
       </c>
       <c r="E13">
-        <v>0.9952306591546022</v>
+        <v>0.9557565093288464</v>
       </c>
       <c r="F13">
-        <v>0.9948001574743723</v>
+        <v>0.9561919229152361</v>
       </c>
       <c r="G13">
-        <v>0.9951615938329433</v>
+        <v>1.084010342035323</v>
       </c>
       <c r="H13">
-        <v>0.9952355635981295</v>
+        <v>0.8836350076755067</v>
       </c>
       <c r="I13">
-        <v>0.9953796614969773</v>
+        <v>0.9555435333211787</v>
       </c>
       <c r="J13">
-        <v>0.9953179138043176</v>
+        <v>1.157322231964719</v>
       </c>
       <c r="K13">
-        <v>0.9952742864794599</v>
+        <v>1.056539370646782</v>
       </c>
       <c r="L13">
-        <v>0.9950372219769161</v>
+        <v>1.006365646781009</v>
       </c>
       <c r="M13">
-        <v>0.9951875915602236</v>
+        <v>0.9987432578734682</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9939530070619301</v>
+        <v>0.9985720000000012</v>
       </c>
       <c r="D14">
-        <v>0.9984456907654522</v>
+        <v>1.038036000000002</v>
       </c>
       <c r="E14">
-        <v>0.9944808641802028</v>
+        <v>0.9775199999999988</v>
       </c>
       <c r="F14">
-        <v>0.9939530070619301</v>
+        <v>0.9985720000000012</v>
       </c>
       <c r="G14">
-        <v>0.9984179358210127</v>
+        <v>1.022660000000002</v>
       </c>
       <c r="H14">
-        <v>0.9931447245532286</v>
+        <v>0.9590199999999987</v>
       </c>
       <c r="I14">
-        <v>0.9952311958174327</v>
+        <v>0.9827319999999988</v>
       </c>
       <c r="J14">
-        <v>0.9984456907654522</v>
+        <v>1.038036000000002</v>
       </c>
       <c r="K14">
-        <v>0.9964632774728275</v>
+        <v>1.007778000000001</v>
       </c>
       <c r="L14">
-        <v>0.9952081422673787</v>
+        <v>1.003175000000001</v>
       </c>
       <c r="M14">
-        <v>0.9956122363665432</v>
+        <v>0.9964233333333335</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9920658845531163</v>
+        <v>1.05</v>
       </c>
       <c r="D15">
-        <v>1.006446160195739</v>
+        <v>0.88</v>
       </c>
       <c r="E15">
-        <v>0.9926101872109829</v>
+        <v>1.01</v>
       </c>
       <c r="F15">
-        <v>0.9920658845531163</v>
+        <v>1.05</v>
       </c>
       <c r="G15">
-        <v>1.001882448689233</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H15">
-        <v>0.9875977552893787</v>
+        <v>1.06</v>
       </c>
       <c r="I15">
-        <v>0.9920388579867631</v>
+        <v>1.02</v>
       </c>
       <c r="J15">
-        <v>1.006446160195739</v>
+        <v>0.88</v>
       </c>
       <c r="K15">
-        <v>0.9995281737033611</v>
+        <v>0.9450000000000001</v>
       </c>
       <c r="L15">
-        <v>0.9957970291282388</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="M15">
-        <v>0.9954402156542023</v>
+        <v>0.9933333333333335</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.003347938170875</v>
+        <v>1.0262974742528</v>
       </c>
       <c r="D16">
-        <v>0.9733256173515474</v>
+        <v>0.928224422399998</v>
       </c>
       <c r="E16">
-        <v>1.001125728766453</v>
+        <v>1.004316422758409</v>
       </c>
       <c r="F16">
-        <v>1.003347938170875</v>
+        <v>1.0262974742528</v>
       </c>
       <c r="G16">
-        <v>0.9836962612942947</v>
+        <v>0.9631890388992002</v>
       </c>
       <c r="H16">
-        <v>1.012687467361678</v>
+        <v>1.032199403212798</v>
       </c>
       <c r="I16">
-        <v>0.9998331504704114</v>
+        <v>1.009604061388806</v>
       </c>
       <c r="J16">
-        <v>0.9733256173515474</v>
+        <v>0.928224422399998</v>
       </c>
       <c r="K16">
-        <v>0.9872256730590003</v>
+        <v>0.9662704225792034</v>
       </c>
       <c r="L16">
-        <v>0.9952868056149375</v>
+        <v>0.9962839484160018</v>
       </c>
       <c r="M16">
-        <v>0.9956693605692098</v>
+        <v>0.9939718038186687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9948001574743723</v>
+      </c>
+      <c r="D17">
+        <v>0.9953179138043176</v>
+      </c>
+      <c r="E17">
+        <v>0.9952306591546022</v>
+      </c>
+      <c r="F17">
+        <v>0.9948001574743723</v>
+      </c>
+      <c r="G17">
+        <v>0.9951615938329431</v>
+      </c>
+      <c r="H17">
+        <v>0.9952355635981295</v>
+      </c>
+      <c r="I17">
+        <v>0.9953796614969773</v>
+      </c>
+      <c r="J17">
+        <v>0.9953179138043176</v>
+      </c>
+      <c r="K17">
+        <v>0.9952742864794599</v>
+      </c>
+      <c r="L17">
+        <v>0.9950372219769161</v>
+      </c>
+      <c r="M17">
+        <v>0.9951875915602236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9939530070619301</v>
+      </c>
+      <c r="D18">
+        <v>0.9984456907654522</v>
+      </c>
+      <c r="E18">
+        <v>0.9944808641802028</v>
+      </c>
+      <c r="F18">
+        <v>0.9939530070619301</v>
+      </c>
+      <c r="G18">
+        <v>0.9984179358210127</v>
+      </c>
+      <c r="H18">
+        <v>0.9931447245532286</v>
+      </c>
+      <c r="I18">
+        <v>0.9952311958174327</v>
+      </c>
+      <c r="J18">
+        <v>0.9984456907654522</v>
+      </c>
+      <c r="K18">
+        <v>0.9964632774728275</v>
+      </c>
+      <c r="L18">
+        <v>0.9952081422673787</v>
+      </c>
+      <c r="M18">
+        <v>0.9956122363665432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9920658845531163</v>
+      </c>
+      <c r="D19">
+        <v>1.006446160195739</v>
+      </c>
+      <c r="E19">
+        <v>0.9926101872109829</v>
+      </c>
+      <c r="F19">
+        <v>0.9920658845531163</v>
+      </c>
+      <c r="G19">
+        <v>1.001882448689233</v>
+      </c>
+      <c r="H19">
+        <v>0.9875977552893787</v>
+      </c>
+      <c r="I19">
+        <v>0.9920388579867631</v>
+      </c>
+      <c r="J19">
+        <v>1.006446160195739</v>
+      </c>
+      <c r="K19">
+        <v>0.9995281737033611</v>
+      </c>
+      <c r="L19">
+        <v>0.9957970291282388</v>
+      </c>
+      <c r="M19">
+        <v>0.9954402156542023</v>
       </c>
     </row>
   </sheetData>
